--- a/results/I3_N5_M2_T30_C100_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2833.28113628781</v>
+        <v>824.263223328113</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.37220434643573</v>
+        <v>19.86873046594926</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.28032676764247</v>
+        <v>3.847386345110651</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.059258709012878</v>
+        <v>2.241879207274351</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2375.180000000004</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.95</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.89414115881186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.87307415243499</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.126925847565008</v>
+        <v>22.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25.31848176470962</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.837257427557379</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.46290845299062</v>
+        <v>27.73943199137683</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.71000000524998</v>
+        <v>27.45511519420007</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1059,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1073,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1087,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,155 +1099,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6900000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.05</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
@@ -1416,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4850000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>180.6550000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3400000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>245.2599999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1460,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>260.8349999999999</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>263.485</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1482,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>266.1799999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1493,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.6099999999999</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1504,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>133.8599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>138.7699999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1526,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.7699999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1537,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>140.9699999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1548,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>139.9799999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1559,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23">
@@ -1570,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
@@ -1581,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -1592,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
@@ -1603,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
@@ -1614,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1625,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1636,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1658,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>176.6900000000007</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1680,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.05</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34">
@@ -1691,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>182.4850000000007</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -1702,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>180.6550000000007</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
@@ -1713,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>176.3400000000007</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -1724,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>245.2599999999999</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -1735,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>260.8349999999999</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -1746,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>263.485</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -1757,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>266.1799999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -1768,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>262.6099999999999</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76.69000000000065</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1826,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>73.05</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>82.48500000000067</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1848,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>80.65500000000065</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>76.34000000000066</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1870,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.2599999999999</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1881,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>160.8349999999999</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1892,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>163.485</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1903,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>166.1799999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1914,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>162.6099999999999</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1972,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1983,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1994,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2005,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2016,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2027,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2038,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2049,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2060,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2071,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2082,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2093,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2104,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2115,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2181,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2192,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2203,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2214,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2225,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2137,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2332,10 +2148,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2343,10 +2159,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2354,10 +2170,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2365,10 +2181,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2376,10 +2192,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2387,10 +2203,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2398,78 +2214,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
